--- a/Random_Forest/Distance_Features_Results.xlsx
+++ b/Random_Forest/Distance_Features_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\Ethan\TMG\Research\PORPOS-TMG\Random_Forest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05A6F771-39A5-46CA-A9AA-7265BA4111AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06518E4C-3B58-4375-9EF8-0140741856D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{F5CC9571-C7F3-4E30-AC54-F7E0A7C71EDA}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -108,10 +108,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2538,25 +2538,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5EDDD0-C854-430C-B3F1-D88912CEE8C7}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="2"/>
       <c r="I1">
         <v>1.96</v>
       </c>
@@ -2585,22 +2585,22 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.45768531150522901</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>8.4686864647496897E-3</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.45728740336516599</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>7.9317141623791599E-3</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0.45713960891314198</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>7.3318680524872698E-3</v>
       </c>
       <c r="I3">
@@ -2612,22 +2612,22 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0.33368179809686699</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>1.55567283847427E-2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.333399276699272</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>1.31244568955599E-2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>0.33555464452636002</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>1.23828927912012E-2</v>
       </c>
     </row>
@@ -2635,22 +2635,22 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0.30026707054906498</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>5.4838867805833604E-3</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.29988927349339201</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>5.6597180303960297E-3</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0.30042669756533902</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>5.71740953154346E-3</v>
       </c>
     </row>
@@ -2658,22 +2658,22 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>0.30417599048367699</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>5.6901520183697896E-3</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.30404276674679798</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>5.5268596093389103E-3</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0.30468279179572499</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>6.4004969937958896E-3</v>
       </c>
     </row>
@@ -2681,22 +2681,22 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>0.2401643407405</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>1.02821009347268E-2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.23908198040603901</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>9.9588928203809806E-3</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0.239167217557507</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>9.4760650827554992E-3</v>
       </c>
     </row>
@@ -2704,38 +2704,38 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>0.38364880099062998</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>4.2625370966955E-3</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>0.38398230463524302</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>3.8062383540359E-3</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>0.38401636013952101</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>3.3741561700069999E-3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
@@ -2910,34 +2910,34 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>0</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
         <v>1</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
         <v>2</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2">
         <v>3</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1">
+      <c r="I22" s="2"/>
+      <c r="J22" s="2">
         <v>4</v>
       </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1">
+      <c r="K22" s="2"/>
+      <c r="L22" s="2">
         <v>5</v>
       </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1">
+      <c r="M22" s="2"/>
+      <c r="N22" s="2">
         <v>6</v>
       </c>
-      <c r="O22" s="1"/>
+      <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
@@ -3352,11 +3352,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
     <mergeCell ref="B1:C1"/>
@@ -3365,8 +3360,13 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3 D3 F3">
+  <conditionalFormatting sqref="D3 B3 F3">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3378,7 +3378,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4 B4 F4">
+  <conditionalFormatting sqref="B4 D4 F4">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3390,7 +3390,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5 D5 F5">
+  <conditionalFormatting sqref="D5 B5 F5">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3402,7 +3402,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6 B6 F6">
+  <conditionalFormatting sqref="B6 D6 F6">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3414,7 +3414,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7 D7 F7">
+  <conditionalFormatting sqref="D7 B7 F7">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3426,7 +3426,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 B8 F8">
+  <conditionalFormatting sqref="B8 D8 F8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
